--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_matched_since_2021/ifoCAst_error_tables_filtered_latest_since_2021_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_matched_since_2021/ifoCAst_error_tables_filtered_latest_since_2021_GVA.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.07092367317217571</v>
+        <v>-0.07405227488138073</v>
       </c>
       <c r="C2">
-        <v>0.5801452236932616</v>
+        <v>0.5849218257695413</v>
       </c>
       <c r="D2">
-        <v>0.540351457330663</v>
+        <v>0.5369781482230573</v>
       </c>
       <c r="E2">
-        <v>0.7350860203613336</v>
+        <v>0.7327879285462182</v>
       </c>
       <c r="F2">
-        <v>0.7528683666860062</v>
+        <v>0.7501725040260092</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04808639995102703</v>
+        <v>-0.04979245339619409</v>
       </c>
       <c r="C3">
-        <v>0.7129296985347779</v>
+        <v>0.6646959867222497</v>
       </c>
       <c r="D3">
-        <v>0.6757590979489233</v>
+        <v>0.6330038130941004</v>
       </c>
       <c r="E3">
-        <v>0.8220456787484034</v>
+        <v>0.7956153675577794</v>
       </c>
       <c r="F3">
-        <v>0.8444295787723533</v>
+        <v>0.8158147246396246</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.213209248525344</v>
+        <v>0.2277465025845359</v>
       </c>
       <c r="C4">
-        <v>0.7015674664413653</v>
+        <v>0.6805023410625829</v>
       </c>
       <c r="D4">
-        <v>0.6469835532073427</v>
+        <v>0.6129072834672828</v>
       </c>
       <c r="E4">
-        <v>0.804352878534877</v>
+        <v>0.7828839527460522</v>
       </c>
       <c r="F4">
-        <v>0.7994502518277878</v>
+        <v>0.770740616034928</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
